--- a/examples/publicBus/InputBus-Operador.xlsx
+++ b/examples/publicBus/InputBus-Operador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ednaruckhaus/Documents/GitHub/Mapeathor/examples/publicBus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D843B90-3AC7-6E4A-8BD0-ADB0D3D454E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC581EC-3D3D-104F-9774-CFEF0B4C153F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="460" windowWidth="26300" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8800" yWindow="460" windowWidth="26300" windowHeight="15600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" r:id="rId1"/>
@@ -238,9 +238,6 @@
     <t>http://vocab.ciudadesabiertas.es/recurso/transporte/autobus/</t>
   </si>
   <si>
-    <t>recurso-autobus:linea/{route_short_name}</t>
-  </si>
-  <si>
     <t>{route_short_name}</t>
   </si>
   <si>
@@ -262,15 +259,9 @@
     <t>recurso-autobus:presentacion/pr-{route_short_name}</t>
   </si>
   <si>
-    <t>recurso-autobus:presentacion/pres-{route_short_name}</t>
-  </si>
-  <si>
     <t>tmorg:Operator</t>
   </si>
   <si>
-    <t>recurso-autobus:operador/{agency_id}</t>
-  </si>
-  <si>
     <t>recurso-autobus:{route_short_name}</t>
   </si>
   <si>
@@ -284,13 +275,22 @@
   </si>
   <si>
     <t>{route_text_color}</t>
+  </si>
+  <si>
+    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/autobus/inea/{route_short_name}</t>
+  </si>
+  <si>
+    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/autobus/presentacion/pres-{route_short_name}</t>
+  </si>
+  <si>
+    <t>http://vocab.ciudadesabiertas.es/recurso/transporte/autobus/operador/{agency_id}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -314,6 +314,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,10 +340,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,8 +360,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -667,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -850,11 +861,14 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{49354C6F-E097-5C4A-A0CE-75EE15BE541F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -865,7 +879,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,7 +1004,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1001,7 +1015,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1009,10 +1023,10 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1083,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -1083,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1097,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1117,10 +1131,10 @@
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1131,10 +1145,10 @@
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1145,10 +1159,10 @@
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1159,10 +1173,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1182,10 +1196,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
